--- a/data/data_template.xlsx
+++ b/data/data_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpodzorski\Documents\00_gsi_workfiles\5648_TA2\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F886848-3EFB-42A9-97D1-8ABDCB16573C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E34FFD-0D4F-408B-915A-D448A85517C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FFC3D5E4-80F1-4B17-B001-9ABFF7A9C093}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FFC3D5E4-80F1-4B17-B001-9ABFF7A9C093}"/>
   </bookViews>
   <sheets>
     <sheet name="Read_Me" sheetId="3" r:id="rId1"/>
@@ -161,10 +161,10 @@
     <t>Well Grouping</t>
   </si>
   <si>
-    <t>Downstream</t>
-  </si>
-  <si>
     <t>Plume</t>
+  </si>
+  <si>
+    <t>Downgradient</t>
   </si>
 </sst>
 </file>
@@ -172,8 +172,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -313,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,21 +333,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,38 +715,38 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -851,7 +856,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>40970</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -883,33 +888,33 @@
       <c r="M3" s="1">
         <v>7</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>41152.5</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -941,33 +946,33 @@
       <c r="M4" s="1">
         <v>8.49</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>41335</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -999,33 +1004,33 @@
       <c r="M5" s="1">
         <v>10.7</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>41517.5</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1057,33 +1062,33 @@
       <c r="M6" s="1">
         <v>11.2</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>41700</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1111,33 +1116,33 @@
         <v>11.5</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>41882.5</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1169,33 +1174,33 @@
       <c r="M8" s="1">
         <v>12</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>42065</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1219,33 +1224,33 @@
       <c r="M9" s="1">
         <v>15</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>42247.5</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1281,33 +1286,33 @@
       <c r="M10" s="1">
         <v>9.4</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>42430</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1339,33 +1344,33 @@
         <v>1.85</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>42612.5</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1391,33 +1396,33 @@
       <c r="M12" s="1">
         <v>11.6</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>42795</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1451,33 +1456,33 @@
       <c r="M13" s="1">
         <v>14.3</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>42977.5</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1507,33 +1512,33 @@
         <v>41.9</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>43160</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1565,33 +1570,33 @@
         <v>13</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>43342.5</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1623,33 +1628,33 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>43525</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1679,33 +1684,33 @@
         <v>11.5</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>43707.5</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1735,33 +1740,33 @@
         <v>5</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>43890</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1783,33 +1788,33 @@
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>44072.5</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1839,33 +1844,33 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>44255</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1893,33 +1898,33 @@
         <v>1.85</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>44437.5</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1937,27 +1942,27 @@
       <c r="K22" s="2"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1971,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186B9F43-56CE-4B47-B5C5-CA3BDB0A7AFE}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,7 +1990,7 @@
     <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1995,148 +2000,154 @@
       <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
-        <v>53.479223519999998</v>
-      </c>
-      <c r="C2" s="9">
-        <v>-31.637000400000002</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="12">
+        <v>29.731482100000001</v>
+      </c>
+      <c r="C2" s="12">
+        <v>-95.413219999999995</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
-        <v>53.489223520000003</v>
-      </c>
-      <c r="C3" s="9">
-        <v>-31.6470004</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>29.740480000000002</v>
+      </c>
+      <c r="C3" s="17">
+        <v>-95.522620000000003</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
-        <v>53.499223520000001</v>
-      </c>
-      <c r="C4" s="9">
-        <v>-31.657000400000001</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="B4" s="8">
+        <v>29.771329999999999</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-95.322329999999994</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>53.509223519999999</v>
-      </c>
-      <c r="C5" s="9">
-        <v>-31.667000399999999</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="8">
+        <v>29.771750000000001</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-95.304130000000001</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
-        <v>53.519223519999997</v>
-      </c>
-      <c r="C6" s="9">
-        <v>-31.677000400000001</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="B6" s="8">
+        <v>29.663129999999999</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-95.326700000000002</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
-        <v>53.529223520000002</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-31.687000399999999</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="8">
+        <v>29.74822</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-95.503879999999995</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
-        <v>53.53922352</v>
-      </c>
-      <c r="C8" s="9">
-        <v>-31.6970004</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>29.741309999999999</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-95.402460000000005</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
-        <v>53.549223519999998</v>
-      </c>
-      <c r="C9" s="9">
-        <v>-31.707000399999998</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="B9" s="8">
+        <v>29.729009999999999</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-95.433809999999994</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
-        <v>53.559223520000003</v>
-      </c>
-      <c r="C10" s="9">
-        <v>-31.7170004</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="B10" s="8">
+        <v>29.67681</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-95.475409999999997</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B10">
+  <conditionalFormatting sqref="B2">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>#REF!&lt;&gt;$E2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C10">
+  <conditionalFormatting sqref="C2">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>#REF!&lt;&gt;$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data_template.xlsx
+++ b/data/data_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpodzorski\Documents\00_gsi_workfiles\5648_TA2\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E34FFD-0D4F-408B-915A-D448A85517C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C962642-5E99-49E3-AA57-283307A32F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FFC3D5E4-80F1-4B17-B001-9ABFF7A9C093}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FFC3D5E4-80F1-4B17-B001-9ABFF7A9C093}"/>
   </bookViews>
   <sheets>
     <sheet name="Read_Me" sheetId="3" r:id="rId1"/>
@@ -342,15 +342,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -700,7 +700,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I3" sqref="I3:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,38 +715,38 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -886,7 +886,7 @@
         <v>37.1</v>
       </c>
       <c r="M3" s="1">
-        <v>7</v>
+        <v>37.1</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -944,7 +944,7 @@
         <v>41.9</v>
       </c>
       <c r="M4" s="1">
-        <v>8.49</v>
+        <v>41.9</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -1002,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="M5" s="1">
-        <v>10.7</v>
+        <v>13</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -1060,7 +1060,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="M6" s="1">
-        <v>11.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -1115,7 +1115,9 @@
       <c r="L7" s="1">
         <v>11.5</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>11.5</v>
+      </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -1172,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="M8" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -1221,9 +1223,7 @@
         <v>7</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1">
-        <v>15</v>
-      </c>
+      <c r="M9" s="1"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -1284,7 +1284,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>9.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1343,7 +1343,9 @@
       <c r="L11" s="1">
         <v>1.85</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1">
+        <v>1.85</v>
+      </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -1393,9 +1395,7 @@
         <v>11.2</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1">
-        <v>11.6</v>
-      </c>
+      <c r="M12" s="1"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -1454,7 +1454,7 @@
         <v>37.1</v>
       </c>
       <c r="M13" s="1">
-        <v>14.3</v>
+        <v>1.8</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -1511,7 +1511,9 @@
       <c r="L14" s="1">
         <v>41.9</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <v>1.2</v>
+      </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -1569,7 +1571,9 @@
       <c r="L15" s="1">
         <v>13</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -1627,7 +1631,9 @@
       <c r="L16" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <v>1.2</v>
+      </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -1683,7 +1689,9 @@
       <c r="L17" s="1">
         <v>11.5</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -1739,7 +1747,9 @@
       <c r="L18" s="1">
         <v>5</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <v>0.8</v>
+      </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -1843,7 +1853,9 @@
       <c r="L20" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <v>0.7</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -1897,7 +1909,9 @@
       <c r="L21" s="1">
         <v>1.85</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -1941,7 +1955,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -1979,7 +1993,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2009,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="12">
-        <v>29.731482100000001</v>
+        <v>29.731660000000002</v>
       </c>
       <c r="C2" s="12">
-        <v>-95.413219999999995</v>
+        <v>-95.412599999999998</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>41</v>
@@ -2023,10 +2037,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>29.740480000000002</v>
-      </c>
-      <c r="C3" s="17">
-        <v>-95.522620000000003</v>
+        <v>29.732970000000002</v>
+      </c>
+      <c r="C3" s="15">
+        <v>-95.413979999999995</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>42</v>
@@ -2037,10 +2051,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>29.771329999999999</v>
+        <v>29.733080000000001</v>
       </c>
       <c r="C4" s="8">
-        <v>-95.322329999999994</v>
+        <v>-95.413020000000003</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>41</v>
@@ -2051,10 +2065,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8">
-        <v>29.771750000000001</v>
+        <v>29.732679999999998</v>
       </c>
       <c r="C5" s="8">
-        <v>-95.304130000000001</v>
+        <v>-95.411810000000003</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>41</v>
@@ -2065,26 +2079,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="8">
-        <v>29.663129999999999</v>
+        <v>29.733730000000001</v>
       </c>
       <c r="C6" s="8">
-        <v>-95.326700000000002</v>
+        <v>-95.412239999999997</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="8">
-        <v>29.74822</v>
+        <v>29.733250000000002</v>
       </c>
       <c r="C7" s="8">
-        <v>-95.503879999999995</v>
+        <v>-95.411389999999997</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>42</v>
@@ -2095,10 +2109,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8">
-        <v>29.741309999999999</v>
+        <v>29.733989999999999</v>
       </c>
       <c r="C8" s="8">
-        <v>-95.402460000000005</v>
+        <v>-95.410929999999993</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>41</v>
@@ -2109,10 +2123,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>29.729009999999999</v>
+        <v>29.732690000000002</v>
       </c>
       <c r="C9" s="8">
-        <v>-95.433809999999994</v>
+        <v>-95.413179999999997</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>42</v>
@@ -2123,17 +2137,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="8">
-        <v>29.67681</v>
+        <v>29.732559999999999</v>
       </c>
       <c r="C10" s="8">
-        <v>-95.475409999999997</v>
+        <v>-95.412350000000004</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K19" s="16"/>
+      <c r="K19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data/data_template.xlsx
+++ b/data/data_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpodzorski\Documents\00_gsi_workfiles\5648_TA2\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_20210802\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E34FFD-0D4F-408B-915A-D448A85517C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF772090-3B9C-484B-A13A-546566488C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FFC3D5E4-80F1-4B17-B001-9ABFF7A9C093}"/>
+    <workbookView xWindow="29565" yWindow="930" windowWidth="15975" windowHeight="15120" activeTab="2" xr2:uid="{FFC3D5E4-80F1-4B17-B001-9ABFF7A9C093}"/>
   </bookViews>
   <sheets>
     <sheet name="Read_Me" sheetId="3" r:id="rId1"/>
@@ -342,15 +342,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,7 +689,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -700,55 +700,55 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I3" sqref="I3:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -852,7 +852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -886,7 +886,7 @@
         <v>37.1</v>
       </c>
       <c r="M3" s="1">
-        <v>7</v>
+        <v>37.1</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -910,7 +910,7 @@
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -944,7 +944,7 @@
         <v>41.9</v>
       </c>
       <c r="M4" s="1">
-        <v>8.49</v>
+        <v>41.9</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -968,7 +968,7 @@
       <c r="AG4" s="10"/>
       <c r="AH4" s="10"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="M5" s="1">
-        <v>10.7</v>
+        <v>13</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -1026,7 +1026,7 @@
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="M6" s="1">
-        <v>11.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -1084,7 +1084,7 @@
       <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1115,7 +1115,9 @@
       <c r="L7" s="1">
         <v>11.5</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>11.5</v>
+      </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -1138,7 +1140,7 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1172,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="M8" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -1196,7 +1198,7 @@
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1221,9 +1223,7 @@
         <v>7</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1">
-        <v>15</v>
-      </c>
+      <c r="M9" s="1"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -1246,7 +1246,7 @@
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>9.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1308,7 +1308,7 @@
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1343,7 +1343,9 @@
       <c r="L11" s="1">
         <v>1.85</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1">
+        <v>1.85</v>
+      </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -1366,7 +1368,7 @@
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1393,9 +1395,7 @@
         <v>11.2</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1">
-        <v>11.6</v>
-      </c>
+      <c r="M12" s="1"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -1418,7 +1418,7 @@
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>37.1</v>
       </c>
       <c r="M13" s="1">
-        <v>14.3</v>
+        <v>1.8</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -1478,7 +1478,7 @@
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1511,7 +1511,9 @@
       <c r="L14" s="1">
         <v>41.9</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <v>1.2</v>
+      </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -1534,7 +1536,7 @@
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1569,7 +1571,9 @@
       <c r="L15" s="1">
         <v>13</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -1592,7 +1596,7 @@
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1627,7 +1631,9 @@
       <c r="L16" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <v>1.2</v>
+      </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -1650,7 +1656,7 @@
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1683,7 +1689,9 @@
       <c r="L17" s="1">
         <v>11.5</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -1706,7 +1714,7 @@
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1739,7 +1747,9 @@
       <c r="L18" s="1">
         <v>5</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <v>0.8</v>
+      </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -1762,7 +1772,7 @@
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1810,7 +1820,7 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1843,7 +1853,9 @@
       <c r="L20" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <v>0.7</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -1866,7 +1878,7 @@
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1897,7 +1909,9 @@
       <c r="L21" s="1">
         <v>1.85</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1">
+        <v>0.5</v>
+      </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -1920,7 +1934,7 @@
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1941,7 +1955,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -1979,18 +1993,18 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -2004,136 +2018,136 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12">
-        <v>29.731482100000001</v>
+        <v>29.731660000000002</v>
       </c>
       <c r="C2" s="12">
-        <v>-95.413219999999995</v>
+        <v>-95.412599999999998</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>29.740480000000002</v>
-      </c>
-      <c r="C3" s="17">
-        <v>-95.522620000000003</v>
+        <v>29.732970000000002</v>
+      </c>
+      <c r="C3" s="15">
+        <v>-95.413979999999995</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>29.771329999999999</v>
+        <v>29.733080000000001</v>
       </c>
       <c r="C4" s="8">
-        <v>-95.322329999999994</v>
+        <v>-95.413020000000003</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8">
-        <v>29.771750000000001</v>
+        <v>29.732679999999998</v>
       </c>
       <c r="C5" s="8">
-        <v>-95.304130000000001</v>
+        <v>-95.411810000000003</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="8">
-        <v>29.663129999999999</v>
+        <v>29.733730000000001</v>
       </c>
       <c r="C6" s="8">
-        <v>-95.326700000000002</v>
+        <v>-95.412239999999997</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="8">
-        <v>29.74822</v>
+        <v>29.733250000000002</v>
       </c>
       <c r="C7" s="8">
-        <v>-95.503879999999995</v>
+        <v>-95.411389999999997</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="8">
-        <v>29.741309999999999</v>
+        <v>29.733989999999999</v>
       </c>
       <c r="C8" s="8">
-        <v>-95.402460000000005</v>
+        <v>-95.410929999999993</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>29.729009999999999</v>
+        <v>29.732690000000002</v>
       </c>
       <c r="C9" s="8">
-        <v>-95.433809999999994</v>
+        <v>-95.413179999999997</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="8">
-        <v>29.67681</v>
+        <v>29.732559999999999</v>
       </c>
       <c r="C10" s="8">
-        <v>-95.475409999999997</v>
+        <v>-95.412350000000004</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K19" s="16"/>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data/data_template.xlsx
+++ b/data/data_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA0AE5F-641B-4AE1-990A-8AF56CDD1786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2482F5A-A5AB-40E7-9300-D8CED10FF265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29505" yWindow="2175" windowWidth="24690" windowHeight="11250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentration_Time_Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="59">
   <si>
     <t>Event</t>
   </si>
@@ -48,30 +48,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>MW-22</t>
-  </si>
-  <si>
-    <t>MW-23</t>
-  </si>
-  <si>
-    <t>MW-24</t>
-  </si>
-  <si>
-    <t>MW-25</t>
-  </si>
-  <si>
-    <t>MW-26</t>
-  </si>
-  <si>
-    <t>MW-27</t>
-  </si>
-  <si>
-    <t>MW-28</t>
-  </si>
-  <si>
-    <t>MW-29</t>
-  </si>
-  <si>
     <t>MW-30</t>
   </si>
   <si>
@@ -165,9 +141,6 @@
     <t>Source Well</t>
   </si>
   <si>
-    <t>Down Gradient</t>
-  </si>
-  <si>
     <t>PCE</t>
   </si>
   <si>
@@ -199,13 +172,58 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plume Boundary </t>
+  </si>
+  <si>
+    <t>MW-1</t>
+  </si>
+  <si>
+    <t>MW-2</t>
+  </si>
+  <si>
+    <t>MW-3</t>
+  </si>
+  <si>
+    <t>MW-4</t>
+  </si>
+  <si>
+    <t>MW-5</t>
+  </si>
+  <si>
+    <t>MW-6</t>
+  </si>
+  <si>
+    <t>MW-7</t>
+  </si>
+  <si>
+    <t>MW-8</t>
+  </si>
+  <si>
+    <t>MW-9</t>
+  </si>
+  <si>
+    <t>PW-1</t>
+  </si>
+  <si>
+    <t>PW-3</t>
+  </si>
+  <si>
+    <t>Plume</t>
+  </si>
+  <si>
+    <t>P&amp;T Wells</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -222,6 +240,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -246,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -278,11 +301,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -291,22 +341,65 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00B3EE8B-EBBD-43E2-B901-D3A7C381D9A2}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -598,74 +691,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH68"/>
+  <dimension ref="A1:AH134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="8"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -674,111 +767,111 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="T2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="U2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="V2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="W2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" t="s">
+      <c r="X2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Y2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH2" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>34912</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>2.8</v>
@@ -787,129 +880,129 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>35312</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>35598</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>35318</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>35599</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M7">
         <v>3.7</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>36355</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>36361</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>34912</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>27200</v>
@@ -927,21 +1020,21 @@
         <v>674</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>35312</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I11">
         <v>1300</v>
@@ -956,21 +1049,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>35598</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>170</v>
@@ -982,61 +1075,61 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>35318</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L13">
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>35599</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M14">
         <v>2700</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>36355</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Q15">
         <v>386</v>
@@ -1045,41 +1138,41 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>36361</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T16">
         <v>0.86</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>34912</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>51360</v>
@@ -1097,21 +1190,21 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>35312</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I18">
         <v>50</v>
@@ -1129,21 +1222,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>35598</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>3700</v>
@@ -1155,61 +1248,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>35318</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L20">
         <v>820</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>35599</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M21">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>36355</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Q22">
         <v>9.9</v>
@@ -1218,279 +1311,279 @@
         <v>95.29</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>36361</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T23">
         <v>44.4</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>34912</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>35312</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>35598</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>35318</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>35599</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>36355</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>36361</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>34912</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>35312</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>35598</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>35318</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>35599</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>36355</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>36361</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>34912</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F38">
         <v>10</v>
@@ -1502,226 +1595,226 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>35312</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R39">
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>35598</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>35318</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>35599</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>36355</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="S43">
         <v>0.68</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>36361</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T44">
         <v>2.66</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>42264</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>42270</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Y46">
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>42271</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O47">
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>42262</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="V48">
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>42264</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>42270</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M50">
         <v>325</v>
@@ -1730,41 +1823,41 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>42271</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O51">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>42262</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="U52">
         <v>0.84699999999999998</v>
@@ -1779,41 +1872,41 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>42264</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F53">
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>42270</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M54">
         <v>17.7</v>
@@ -1822,38 +1915,38 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>42271</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>42262</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="U56">
         <v>5.58</v>
@@ -1868,38 +1961,38 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>42264</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>42270</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M58">
         <v>7.73</v>
@@ -1908,38 +2001,38 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>42271</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>42262</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="U60">
         <v>7.06</v>
@@ -1954,106 +2047,106 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>42264</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>42270</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>42271</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>42262</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>42264</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>42270</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M66">
         <v>0.59299999999999997</v>
@@ -2062,44 +2155,1623 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <v>42271</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>42262</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="W68">
         <v>0.88400000000000001</v>
       </c>
       <c r="X68">
         <v>12.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="11">
+        <v>34206</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z69">
+        <v>1400</v>
+      </c>
+      <c r="AA69"/>
+      <c r="AB69" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="AC69" s="13">
+        <v>7</v>
+      </c>
+      <c r="AD69" s="14"/>
+      <c r="AE69" s="14"/>
+      <c r="AF69" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="AG69" s="13">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4">
+        <v>34210</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA70">
+        <v>1900</v>
+      </c>
+      <c r="AB70" s="13">
+        <v>41.9</v>
+      </c>
+      <c r="AC70" s="13">
+        <v>8.49</v>
+      </c>
+      <c r="AD70" s="14"/>
+      <c r="AE70" s="14"/>
+      <c r="AF70" s="13">
+        <v>41.9</v>
+      </c>
+      <c r="AG70" s="13">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4">
+        <v>34740</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z71">
+        <v>840</v>
+      </c>
+      <c r="AA71">
+        <v>1400</v>
+      </c>
+      <c r="AB71" s="13">
+        <v>13</v>
+      </c>
+      <c r="AC71" s="13">
+        <v>10.7</v>
+      </c>
+      <c r="AD71" s="14"/>
+      <c r="AE71" s="14"/>
+      <c r="AF71" s="13">
+        <v>13</v>
+      </c>
+      <c r="AG71" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4">
+        <v>34961</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72">
+        <v>480</v>
+      </c>
+      <c r="AA72">
+        <v>820</v>
+      </c>
+      <c r="AB72" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AC72" s="13">
+        <v>11.2</v>
+      </c>
+      <c r="AD72" s="14"/>
+      <c r="AE72" s="14"/>
+      <c r="AF72" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AG72" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4">
+        <v>35037</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z73">
+        <v>350</v>
+      </c>
+      <c r="AA73">
+        <v>700</v>
+      </c>
+      <c r="AB73" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AC73" s="13"/>
+      <c r="AD73" s="14"/>
+      <c r="AE73" s="14"/>
+      <c r="AF73" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AG73" s="13">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4">
+        <v>35149</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z74">
+        <v>270</v>
+      </c>
+      <c r="AA74">
+        <v>525</v>
+      </c>
+      <c r="AB74" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC74" s="13">
+        <v>12</v>
+      </c>
+      <c r="AD74" s="14"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG74" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4">
+        <v>35370</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z75">
+        <v>290</v>
+      </c>
+      <c r="AA75">
+        <v>535</v>
+      </c>
+      <c r="AB75" s="13"/>
+      <c r="AC75" s="13">
+        <v>15</v>
+      </c>
+      <c r="AD75" s="14"/>
+      <c r="AE75" s="13">
+        <v>7</v>
+      </c>
+      <c r="AF75" s="13"/>
+      <c r="AG75" s="13"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="4">
+        <v>35458</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76">
+        <v>390</v>
+      </c>
+      <c r="AA76">
+        <v>620</v>
+      </c>
+      <c r="AB76" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC76" s="13">
+        <v>9.4</v>
+      </c>
+      <c r="AD76" s="13">
+        <v>7</v>
+      </c>
+      <c r="AE76" s="13">
+        <v>8.49</v>
+      </c>
+      <c r="AF76" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG76" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4">
+        <v>35551</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z77">
+        <v>315</v>
+      </c>
+      <c r="AA77">
+        <v>420</v>
+      </c>
+      <c r="AB77" s="13">
+        <v>1.85</v>
+      </c>
+      <c r="AC77" s="13"/>
+      <c r="AD77" s="13">
+        <v>8.49</v>
+      </c>
+      <c r="AE77" s="13">
+        <v>10.7</v>
+      </c>
+      <c r="AF77" s="13">
+        <v>1.85</v>
+      </c>
+      <c r="AG77" s="13">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4">
+        <v>35632</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z78">
+        <v>290</v>
+      </c>
+      <c r="AA78">
+        <v>440</v>
+      </c>
+      <c r="AB78" s="13"/>
+      <c r="AC78" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="AD78" s="13">
+        <v>10.7</v>
+      </c>
+      <c r="AE78" s="13">
+        <v>11.2</v>
+      </c>
+      <c r="AF78" s="13"/>
+      <c r="AG78" s="13"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4">
+        <v>35717</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA79">
+        <v>440</v>
+      </c>
+      <c r="AB79" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="AC79" s="13">
+        <v>14.3</v>
+      </c>
+      <c r="AD79" s="13">
+        <v>11.2</v>
+      </c>
+      <c r="AE79" s="13"/>
+      <c r="AF79" s="13">
+        <v>37.1</v>
+      </c>
+      <c r="AG79" s="13">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4">
+        <v>35731</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z80">
+        <v>300</v>
+      </c>
+      <c r="AB80" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="AC80" s="14"/>
+      <c r="AD80" s="13"/>
+      <c r="AE80" s="13">
+        <v>12</v>
+      </c>
+      <c r="AF80" s="13">
+        <v>41.9</v>
+      </c>
+      <c r="AG80" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="4">
+        <v>35815</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z81">
+        <v>210</v>
+      </c>
+      <c r="AA81">
+        <v>280</v>
+      </c>
+      <c r="AB81" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="14"/>
+      <c r="AD81" s="13">
+        <v>12</v>
+      </c>
+      <c r="AE81" s="13">
+        <v>15</v>
+      </c>
+      <c r="AF81" s="13">
+        <v>13</v>
+      </c>
+      <c r="AG81" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="4">
+        <v>35901</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z82">
+        <v>150</v>
+      </c>
+      <c r="AA82">
+        <v>200</v>
+      </c>
+      <c r="AB82" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="AC82" s="14"/>
+      <c r="AD82" s="13">
+        <v>15</v>
+      </c>
+      <c r="AE82" s="13">
+        <v>9.4</v>
+      </c>
+      <c r="AF82" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AG82" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4">
+        <v>36005</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83">
+        <v>245</v>
+      </c>
+      <c r="AA83">
+        <v>400</v>
+      </c>
+      <c r="AB83" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC83" s="14"/>
+      <c r="AD83" s="13">
+        <v>9.4</v>
+      </c>
+      <c r="AE83" s="13"/>
+      <c r="AF83" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="AG83" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="4">
+        <v>36095</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z84">
+        <v>235</v>
+      </c>
+      <c r="AA84">
+        <v>370</v>
+      </c>
+      <c r="AB84" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="AC84" s="14"/>
+      <c r="AD84" s="13"/>
+      <c r="AE84" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="AF84" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG84" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4">
+        <v>36187</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z85">
+        <v>62</v>
+      </c>
+      <c r="AA85">
+        <v>160</v>
+      </c>
+      <c r="AB85" s="13"/>
+      <c r="AC85" s="14"/>
+      <c r="AD85" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="AE85" s="13">
+        <v>14.3</v>
+      </c>
+      <c r="AF85" s="13"/>
+      <c r="AG85" s="13"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="4">
+        <v>36269</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z86">
+        <v>154</v>
+      </c>
+      <c r="AA86">
+        <v>270</v>
+      </c>
+      <c r="AB86" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="AC86" s="14"/>
+      <c r="AD86" s="13">
+        <v>14.3</v>
+      </c>
+      <c r="AE86" s="14"/>
+      <c r="AF86" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG86" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4">
+        <v>36368</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z87">
+        <v>120</v>
+      </c>
+      <c r="AA87">
+        <v>200</v>
+      </c>
+      <c r="AB87" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AC87" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="AD87" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="AE87" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="AF87" s="13">
+        <v>1.85</v>
+      </c>
+      <c r="AG87" s="13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="4">
+        <v>36493</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z88">
+        <v>140</v>
+      </c>
+      <c r="AA88">
+        <v>310</v>
+      </c>
+      <c r="AB88" s="14"/>
+      <c r="AC88" s="14"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="14"/>
+      <c r="AF88" s="13"/>
+      <c r="AG88" s="14"/>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="4">
+        <v>36549</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89">
+        <v>175</v>
+      </c>
+      <c r="AA89">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="4">
+        <v>36642</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z90">
+        <v>130</v>
+      </c>
+      <c r="AA90">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="4">
+        <v>36733</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91">
+        <v>170</v>
+      </c>
+      <c r="AA91">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="4">
+        <v>36823</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z92">
+        <v>120</v>
+      </c>
+      <c r="AA92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="4">
+        <v>36900</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z93">
+        <v>120</v>
+      </c>
+      <c r="AA93">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="4">
+        <v>36991</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94">
+        <v>110</v>
+      </c>
+      <c r="AA94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4">
+        <v>37082</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z95">
+        <v>99</v>
+      </c>
+      <c r="AA95">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="4">
+        <v>37204</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z96">
+        <v>91</v>
+      </c>
+      <c r="AA96">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="4">
+        <v>37272</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z97">
+        <v>99</v>
+      </c>
+      <c r="AA97">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="4">
+        <v>37365</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z98">
+        <v>110</v>
+      </c>
+      <c r="AA98">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4">
+        <v>37447</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z99">
+        <v>94</v>
+      </c>
+      <c r="AA99">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="4">
+        <v>37582</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100">
+        <v>78</v>
+      </c>
+      <c r="AA100">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="4">
+        <v>37638</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101">
+        <v>95</v>
+      </c>
+      <c r="AA101">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="4">
+        <v>37735</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102">
+        <v>75</v>
+      </c>
+      <c r="AA102">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="4">
+        <v>37798</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z103">
+        <v>85</v>
+      </c>
+      <c r="AA103">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="4">
+        <v>37938</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z104">
+        <v>75</v>
+      </c>
+      <c r="AA104">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="4">
+        <v>38009</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z105">
+        <v>89</v>
+      </c>
+      <c r="AA105">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="4">
+        <v>38086</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z106">
+        <v>83</v>
+      </c>
+      <c r="AA106">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="4">
+        <v>38188</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z107">
+        <v>90</v>
+      </c>
+      <c r="AA107">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="4">
+        <v>38300</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z108">
+        <v>74</v>
+      </c>
+      <c r="AA108">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="4">
+        <v>38378</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z109">
+        <v>87</v>
+      </c>
+      <c r="AA109">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="4">
+        <v>38471</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z110">
+        <v>100</v>
+      </c>
+      <c r="AA110">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="4">
+        <v>38565</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z111">
+        <v>97</v>
+      </c>
+      <c r="AA111">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="4">
+        <v>38653</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z112">
+        <v>84</v>
+      </c>
+      <c r="AA112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="4">
+        <v>38755</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z113">
+        <v>98</v>
+      </c>
+      <c r="AA113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="4">
+        <v>38848</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z114">
+        <v>86</v>
+      </c>
+      <c r="AA114">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="4">
+        <v>38946</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z115">
+        <v>140</v>
+      </c>
+      <c r="AA115">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="4">
+        <v>39027</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z116">
+        <v>210</v>
+      </c>
+      <c r="AA116">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="4">
+        <v>39140</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z117">
+        <v>120</v>
+      </c>
+      <c r="AA117">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="4">
+        <v>39216</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z118">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="4">
+        <v>39218</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="4">
+        <v>39311</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z120">
+        <v>150</v>
+      </c>
+      <c r="AA120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="4">
+        <v>39500</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z121">
+        <v>130</v>
+      </c>
+      <c r="AA121">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="4">
+        <v>39689</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z122">
+        <v>100</v>
+      </c>
+      <c r="AA122">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="4">
+        <v>39930</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z123">
+        <v>110</v>
+      </c>
+      <c r="AA123">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="4">
+        <v>40045</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z124">
+        <v>120</v>
+      </c>
+      <c r="AA124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="4">
+        <v>40396</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z125">
+        <v>86</v>
+      </c>
+      <c r="AA125">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="4">
+        <v>40585</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z126">
+        <v>90</v>
+      </c>
+      <c r="AA126">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="4">
+        <v>40757</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z127">
+        <v>69</v>
+      </c>
+      <c r="AA127">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="4">
+        <v>40940</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z128">
+        <v>77</v>
+      </c>
+      <c r="AA128">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="4">
+        <v>41127</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z129">
+        <v>74</v>
+      </c>
+      <c r="AA129">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="4">
+        <v>41309</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z130">
+        <v>65</v>
+      </c>
+      <c r="AA130">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="4">
+        <v>41491</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z131">
+        <v>63</v>
+      </c>
+      <c r="AA131">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="4">
+        <v>41683</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z132">
+        <v>73</v>
+      </c>
+      <c r="AA132">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="4">
+        <v>41893</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z133">
+        <v>82</v>
+      </c>
+      <c r="AA133">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="4">
+        <v>42058</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z134">
+        <v>89</v>
+      </c>
+      <c r="AA134">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2113,48 +3785,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>43.497896066780697</v>
@@ -2171,16 +3843,16 @@
       <c r="F2">
         <v>2260</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>41</v>
+      <c r="G2" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>43.499098756970596</v>
@@ -2197,16 +3869,16 @@
       <c r="F3">
         <v>2260</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>42</v>
+      <c r="G3" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H3" s="3">
         <v>291.32646270796863</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>43.4988900084943</v>
@@ -2223,16 +3895,16 @@
       <c r="F4">
         <v>2260</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>42</v>
+      <c r="G4" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H4" s="3">
         <v>323.50463870469224</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>43.499064494015897</v>
@@ -2249,16 +3921,16 @@
       <c r="F5">
         <v>2260</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>42</v>
+      <c r="G5" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H5" s="3">
         <v>635.7436421844759</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>43.501480893430802</v>
@@ -2275,16 +3947,16 @@
       <c r="F6">
         <v>2260</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>42</v>
+      <c r="G6" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="3">
         <v>770.20055978851542</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>43.501201095843399</v>
@@ -2301,16 +3973,16 @@
       <c r="F7">
         <v>2260</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>42</v>
+      <c r="G7" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H7" s="3">
         <v>821.29446540000356</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>43.502992219480603</v>
@@ -2327,16 +3999,16 @@
       <c r="F8">
         <v>2260</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>42</v>
+      <c r="G8" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H8" s="3">
         <v>1059.6937510700161</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>43.493260105793098</v>
@@ -2353,16 +4025,16 @@
       <c r="F9">
         <v>2260</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>42</v>
+      <c r="G9" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H9" s="3">
         <v>1153.2742029608949</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>43.504728457834197</v>
@@ -2379,16 +4051,16 @@
       <c r="F10">
         <v>2260</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>42</v>
+      <c r="G10" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H10" s="3">
         <v>1190.1928427889777</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>43.491674293631803</v>
@@ -2405,16 +4077,16 @@
       <c r="F11">
         <v>2260</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>42</v>
+      <c r="G11" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H11" s="3">
         <v>1435.9474839221741</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>43.505960934719198</v>
@@ -2431,16 +4103,16 @@
       <c r="F12">
         <v>2260</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>42</v>
+      <c r="G12" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H12" s="3">
         <v>1511.5068004322216</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>43.503966643433699</v>
@@ -2457,16 +4129,16 @@
       <c r="F13">
         <v>2260</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>42</v>
+      <c r="G13" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H13" s="3">
         <v>1554.4647711192977</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>43.503938939826298</v>
@@ -2483,16 +4155,16 @@
       <c r="F14">
         <v>2260</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>42</v>
+      <c r="G14" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H14" s="3">
         <v>2151.6681727244145</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>43.505783949095502</v>
@@ -2509,16 +4181,16 @@
       <c r="F15">
         <v>2260</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>42</v>
+      <c r="G15" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H15" s="3">
         <v>2180.9883532348667</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>43.506081167713397</v>
@@ -2535,16 +4207,16 @@
       <c r="F16">
         <v>2260</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>42</v>
+      <c r="G16" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H16" s="3">
         <v>2284.7545992229939</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>43.492655534737601</v>
@@ -2561,16 +4233,16 @@
       <c r="F17">
         <v>2260</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>42</v>
+      <c r="G17" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H17" s="3">
         <v>1951.0246073131161</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>43.492468745346002</v>
@@ -2587,16 +4259,16 @@
       <c r="F18">
         <v>2260</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>42</v>
+      <c r="G18" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H18" s="3">
         <v>2106.4595471012444</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>43.491029918326703</v>
@@ -2613,16 +4285,16 @@
       <c r="F19">
         <v>2260</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>42</v>
+      <c r="G19" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H19" s="3">
         <v>2221.0391300440147</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>43.496220118497398</v>
@@ -2639,16 +4311,16 @@
       <c r="F20">
         <v>2260</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>42</v>
+      <c r="G20" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H20" s="3">
         <v>676.28408446261255</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>43.493137095666903</v>
@@ -2665,14 +4337,211 @@
       <c r="F21">
         <v>2260</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>42</v>
+      <c r="G21" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H21" s="3">
         <v>947.21253304322397</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="7">
+        <v>29.731660000000002</v>
+      </c>
+      <c r="C22" s="7">
+        <v>-95.412599999999998</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="8">
+        <v>29.732970000000002</v>
+      </c>
+      <c r="C23" s="9">
+        <v>-95.413979999999995</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="8">
+        <v>29.733080000000001</v>
+      </c>
+      <c r="C24" s="8">
+        <v>-95.413020000000003</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8">
+        <v>29.732679999999998</v>
+      </c>
+      <c r="C25" s="8">
+        <v>-95.411810000000003</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="8">
+        <v>29.733730000000001</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-95.412239999999997</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="8">
+        <v>29.733250000000002</v>
+      </c>
+      <c r="C27" s="8">
+        <v>-95.411389999999997</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="8">
+        <v>29.733989999999999</v>
+      </c>
+      <c r="C28" s="8">
+        <v>-95.410929999999993</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="8">
+        <v>29.732690000000002</v>
+      </c>
+      <c r="C29" s="8">
+        <v>-95.413179999999997</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="8">
+        <v>29.732559999999999</v>
+      </c>
+      <c r="C30" s="8">
+        <v>-95.412350000000004</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="8">
+        <v>29.733560000000001</v>
+      </c>
+      <c r="C31" s="8">
+        <v>-95.413349999999994</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="8">
+        <v>29.73556</v>
+      </c>
+      <c r="C32" s="8">
+        <v>-95.415350000000004</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="10">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;$E22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>#REF!&lt;&gt;$E22</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/data/data_template.xlsx
+++ b/data/data_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DC50B5-BB64-4026-9D4A-6A6B0B1795AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB83D32-80AB-410C-975E-9E920AE9AFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25545" yWindow="1005" windowWidth="21600" windowHeight="13695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentration_Time_Data" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>TCE</t>
   </si>
   <si>
-    <t>ug/L</t>
-  </si>
-  <si>
     <t>Monitoring Wells</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>totalDCE</t>
   </si>
   <si>
-    <t>1.1-DCE</t>
-  </si>
-  <si>
     <t>VC</t>
   </si>
   <si>
@@ -219,6 +213,12 @@
   </si>
   <si>
     <t>Point of Compliance</t>
+  </si>
+  <si>
+    <t>1,1-DCE</t>
+  </si>
+  <si>
+    <t>μg/L</t>
   </si>
 </sst>
 </file>
@@ -228,10 +228,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -291,59 +298,63 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -693,29 +704,29 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
@@ -725,30 +736,30 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>34206</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E2">
         <v>1400</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="4">
         <v>37.1</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="4">
         <v>7</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4">
         <v>37.1</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="4">
         <v>37.1</v>
       </c>
     </row>
@@ -756,30 +767,30 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>34210</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F3">
         <v>1900</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="4">
         <v>41.9</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="4">
         <v>8.49</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="12">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4">
         <v>41.9</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="4">
         <v>41.9</v>
       </c>
     </row>
@@ -787,14 +798,14 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>34740</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E4">
         <v>840</v>
@@ -802,18 +813,18 @@
       <c r="F4">
         <v>1400</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="4">
         <v>13</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="4">
         <v>10.7</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="12">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4">
         <v>13</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="4">
         <v>13</v>
       </c>
     </row>
@@ -821,14 +832,14 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>34961</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>5</v>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E5">
         <v>480</v>
@@ -836,18 +847,18 @@
       <c r="F5">
         <v>820</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="4">
         <v>11.2</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="4">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -855,14 +866,14 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>35037</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>5</v>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E6">
         <v>350</v>
@@ -870,16 +881,16 @@
       <c r="F6">
         <v>700</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="4">
         <v>11.5</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12">
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4">
         <v>11.5</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="4">
         <v>11.5</v>
       </c>
     </row>
@@ -887,14 +898,14 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>35149</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E7">
         <v>270</v>
@@ -902,18 +913,18 @@
       <c r="F7">
         <v>525</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="4">
         <v>5</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="4">
         <v>12</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="12">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4">
         <v>5</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="4">
         <v>5</v>
       </c>
     </row>
@@ -921,14 +932,14 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>35370</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>5</v>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E8">
         <v>290</v>
@@ -936,29 +947,29 @@
       <c r="F8">
         <v>535</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
         <v>15</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12">
+      <c r="I8" s="5"/>
+      <c r="J8" s="4">
         <v>7</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>35458</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>5</v>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E9">
         <v>390</v>
@@ -966,22 +977,22 @@
       <c r="F9">
         <v>620</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="4">
         <v>9.4</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="4">
         <v>7</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="4">
         <v>8.49</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="4">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -989,14 +1000,14 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>35551</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>5</v>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E10">
         <v>315</v>
@@ -1004,20 +1015,20 @@
       <c r="F10">
         <v>420</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="4">
         <v>1.85</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
         <v>8.49</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="4">
         <v>10.7</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="4">
         <v>1.85</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="4">
         <v>1.85</v>
       </c>
     </row>
@@ -1025,14 +1036,14 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>35632</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>5</v>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E11">
         <v>290</v>
@@ -1040,49 +1051,49 @@
       <c r="F11">
         <v>440</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <v>11.6</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="4">
         <v>10.7</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="4">
         <v>11.2</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>35717</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F12">
         <v>440</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="4">
         <v>1.8</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="4">
         <v>14.3</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="4">
         <v>11.2</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
         <v>37.1</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="4">
         <v>1.8</v>
       </c>
     </row>
@@ -1090,30 +1101,30 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>35731</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>5</v>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E13">
         <v>300</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="4">
         <v>1.2</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12">
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
         <v>12</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="4">
         <v>41.9</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="4">
         <v>1.2</v>
       </c>
     </row>
@@ -1121,14 +1132,14 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>35815</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>5</v>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E14">
         <v>210</v>
@@ -1136,20 +1147,20 @@
       <c r="F14">
         <v>280</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="4">
         <v>1</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="12">
+      <c r="H14" s="5"/>
+      <c r="I14" s="4">
         <v>12</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="4">
         <v>15</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="4">
         <v>13</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1157,14 +1168,14 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>35901</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>5</v>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E15">
         <v>150</v>
@@ -1172,20 +1183,20 @@
       <c r="F15">
         <v>200</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="4">
         <v>1.2</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12">
+      <c r="H15" s="5"/>
+      <c r="I15" s="4">
         <v>15</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="4">
         <v>9.4</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="4">
         <v>1.2</v>
       </c>
     </row>
@@ -1193,14 +1204,14 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>36005</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>5</v>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E16">
         <v>245</v>
@@ -1208,18 +1219,18 @@
       <c r="F16">
         <v>400</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="4">
         <v>1</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="12">
+      <c r="H16" s="5"/>
+      <c r="I16" s="4">
         <v>9.4</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
         <v>11.5</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1227,14 +1238,14 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>36095</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>5</v>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E17">
         <v>235</v>
@@ -1242,18 +1253,18 @@
       <c r="F17">
         <v>370</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="4">
         <v>0.8</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12">
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <v>11.6</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="4">
         <v>5</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="4">
         <v>0.8</v>
       </c>
     </row>
@@ -1261,14 +1272,14 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>36187</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>5</v>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E18">
         <v>62</v>
@@ -1276,29 +1287,29 @@
       <c r="F18">
         <v>160</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="12">
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4">
         <v>11.6</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="4">
         <v>14.3</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>36269</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>5</v>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E19">
         <v>154</v>
@@ -1306,18 +1317,18 @@
       <c r="F19">
         <v>270</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="4">
         <v>0.7</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12">
+      <c r="H19" s="5"/>
+      <c r="I19" s="4">
         <v>14.3</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="12">
+      <c r="J19" s="5"/>
+      <c r="K19" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="4">
         <v>0.7</v>
       </c>
     </row>
@@ -1325,14 +1336,14 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>36368</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>5</v>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E20">
         <v>120</v>
@@ -1340,22 +1351,22 @@
       <c r="F20">
         <v>200</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="4">
         <v>0.3</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="5">
         <v>0.4</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="5">
         <v>1.5</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="5">
         <v>0.4</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="4">
         <v>1.85</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="4">
         <v>0.6</v>
       </c>
     </row>
@@ -1363,14 +1374,14 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>36493</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>5</v>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E21">
         <v>140</v>
@@ -1378,25 +1389,25 @@
       <c r="F21">
         <v>310</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="13"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>36549</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>5</v>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E22">
         <v>175</v>
@@ -1409,14 +1420,14 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>36642</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>5</v>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E23">
         <v>130</v>
@@ -1429,14 +1440,14 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>36733</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E24">
         <v>170</v>
@@ -1449,14 +1460,14 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>36823</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>5</v>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E25">
         <v>120</v>
@@ -1469,14 +1480,14 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>36900</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>5</v>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E26">
         <v>120</v>
@@ -1489,14 +1500,14 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>36991</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>5</v>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E27">
         <v>110</v>
@@ -1509,14 +1520,14 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>37082</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>5</v>
+      <c r="C28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E28">
         <v>99</v>
@@ -1529,14 +1540,14 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>37204</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>5</v>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E29">
         <v>91</v>
@@ -1549,14 +1560,14 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>37272</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>5</v>
+      <c r="C30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E30">
         <v>99</v>
@@ -1569,14 +1580,14 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>37365</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>5</v>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E31">
         <v>110</v>
@@ -1589,14 +1600,14 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>37447</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E32">
         <v>94</v>
@@ -1609,14 +1620,14 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>37582</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>5</v>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E33">
         <v>78</v>
@@ -1629,14 +1640,14 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>37638</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>5</v>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E34">
         <v>95</v>
@@ -1649,14 +1660,14 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>37735</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>5</v>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E35">
         <v>75</v>
@@ -1669,14 +1680,14 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>37798</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>5</v>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E36">
         <v>85</v>
@@ -1689,14 +1700,14 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>37938</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>5</v>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E37">
         <v>75</v>
@@ -1709,14 +1720,14 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>38009</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>5</v>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E38">
         <v>89</v>
@@ -1729,14 +1740,14 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>38086</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>5</v>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E39">
         <v>83</v>
@@ -1749,14 +1760,14 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>38188</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>5</v>
+      <c r="C40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -1769,14 +1780,14 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>38300</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>5</v>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E41">
         <v>74</v>
@@ -1789,14 +1800,14 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2">
         <v>38378</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>5</v>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E42">
         <v>87</v>
@@ -1809,14 +1820,14 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2">
         <v>38471</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>5</v>
+      <c r="C43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -1829,14 +1840,14 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>38565</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>5</v>
+      <c r="C44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E44">
         <v>97</v>
@@ -1849,14 +1860,14 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <v>38653</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>5</v>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E45">
         <v>84</v>
@@ -1869,14 +1880,14 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>38755</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>5</v>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E46">
         <v>98</v>
@@ -1889,14 +1900,14 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>38848</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>5</v>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E47">
         <v>86</v>
@@ -1909,14 +1920,14 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2">
         <v>38946</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>5</v>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E48">
         <v>140</v>
@@ -1929,14 +1940,14 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <v>39027</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>5</v>
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E49">
         <v>210</v>
@@ -1949,14 +1960,14 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="2">
         <v>39140</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>5</v>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E50">
         <v>120</v>
@@ -1969,14 +1980,14 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2">
         <v>39216</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>5</v>
+      <c r="C51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E51">
         <v>120</v>
@@ -1986,14 +1997,14 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2">
         <v>39218</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>5</v>
+      <c r="C52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F52">
         <v>100</v>
@@ -2003,14 +2014,14 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="2">
         <v>39311</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>5</v>
+      <c r="C53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E53">
         <v>150</v>
@@ -2023,14 +2034,14 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="2">
         <v>39500</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>5</v>
+      <c r="C54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E54">
         <v>130</v>
@@ -2043,14 +2054,14 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="2">
         <v>39689</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>5</v>
+      <c r="C55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E55">
         <v>100</v>
@@ -2063,14 +2074,14 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="2">
         <v>39930</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>5</v>
+      <c r="C56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E56">
         <v>110</v>
@@ -2083,14 +2094,14 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="2">
         <v>40045</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>5</v>
+      <c r="C57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E57">
         <v>120</v>
@@ -2103,14 +2114,14 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="2">
         <v>40396</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>5</v>
+      <c r="C58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E58">
         <v>86</v>
@@ -2123,14 +2134,14 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="2">
         <v>40585</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>5</v>
+      <c r="C59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E59">
         <v>90</v>
@@ -2143,14 +2154,14 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="2">
         <v>40757</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>5</v>
+      <c r="C60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E60">
         <v>69</v>
@@ -2163,14 +2174,14 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="2">
         <v>40940</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>5</v>
+      <c r="C61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E61">
         <v>77</v>
@@ -2183,14 +2194,14 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="2">
         <v>41127</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>5</v>
+      <c r="C62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E62">
         <v>74</v>
@@ -2203,14 +2214,14 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="2">
         <v>41309</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>5</v>
+      <c r="C63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E63">
         <v>65</v>
@@ -2223,14 +2234,14 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="2">
         <v>41491</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>5</v>
+      <c r="C64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2243,14 +2254,14 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="2">
         <v>41683</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>5</v>
+      <c r="C65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E65">
         <v>73</v>
@@ -2263,14 +2274,14 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="2">
         <v>41893</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>5</v>
+      <c r="C66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E66">
         <v>82</v>
@@ -2283,14 +2294,14 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="2">
         <v>42058</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>5</v>
+      <c r="C67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E67">
         <v>89</v>
@@ -2309,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCAA046-FEE0-48E5-8250-0C038B4FFBFB}">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2332,84 +2343,84 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>34912</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2.8</v>
@@ -2422,68 +2433,68 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>35312</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>35598</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>35318</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>35599</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M6">
         <v>3.7</v>
@@ -2493,17 +2504,17 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>36355</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q7">
         <v>0.55000000000000004</v>
@@ -2513,34 +2524,34 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>36361</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>34912</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>27200</v>
@@ -2562,17 +2573,17 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>35312</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>1300</v>
@@ -2591,17 +2602,17 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>35598</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11">
         <v>170</v>
@@ -2617,17 +2628,17 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>35318</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L12">
         <v>1200</v>
@@ -2637,17 +2648,17 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>35599</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M13">
         <v>2700</v>
@@ -2657,17 +2668,17 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>36355</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q14">
         <v>386</v>
@@ -2680,17 +2691,17 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>36361</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T15">
         <v>0.86</v>
@@ -2700,17 +2711,17 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>34912</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>51360</v>
@@ -2732,17 +2743,17 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>35312</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>50</v>
@@ -2764,17 +2775,17 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>35598</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K18">
         <v>3700</v>
@@ -2790,17 +2801,17 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>35318</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L19">
         <v>820</v>
@@ -2810,17 +2821,17 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>35599</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M20">
         <v>110</v>
@@ -2830,17 +2841,17 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>36355</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q21">
         <v>9.9</v>
@@ -2853,17 +2864,17 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>36361</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T22">
         <v>44.4</v>
@@ -2873,17 +2884,17 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>34912</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23">
         <f>F16*0.8</f>
@@ -2910,17 +2921,17 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>35312</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <f t="shared" ref="I24:U24" si="1">I17*0.8</f>
@@ -2947,17 +2958,17 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>35598</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
@@ -2976,17 +2987,17 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>35318</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
@@ -2997,17 +3008,17 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>35599</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
@@ -3018,17 +3029,17 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>36355</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
@@ -3043,17 +3054,17 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>36361</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T29">
         <f t="shared" si="0"/>
@@ -3064,17 +3075,17 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>34912</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30">
         <f>F16*0.1</f>
@@ -3101,17 +3112,17 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>35312</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <f t="shared" ref="I31:W31" si="3">I17*0.1</f>
@@ -3138,17 +3149,17 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>35598</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K32">
         <f t="shared" ref="K32:P32" si="4">K18*0.1</f>
@@ -3167,17 +3178,17 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>35318</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L33">
         <f t="shared" ref="L33" si="5">L19*0.1</f>
@@ -3188,17 +3199,17 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>35599</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M34">
         <f t="shared" ref="M34" si="6">M20*0.1</f>
@@ -3209,17 +3220,17 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>36355</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q35">
         <f t="shared" ref="Q35:S35" si="7">Q21*0.1</f>
@@ -3234,17 +3245,17 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>36361</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T36">
         <f t="shared" ref="T36" si="8">T22*0.1</f>
@@ -3255,17 +3266,17 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>34912</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37">
         <f>F16*0.1</f>
@@ -3292,17 +3303,17 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>35312</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I38">
         <f t="shared" ref="I38:W38" si="10">I17*0.1</f>
@@ -3329,17 +3340,17 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>35598</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K39">
         <f t="shared" ref="K39:P39" si="11">K18*0.1</f>
@@ -3358,17 +3369,17 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>35318</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L40">
         <f t="shared" ref="L40" si="12">L19*0.1</f>
@@ -3379,17 +3390,17 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>35599</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M41">
         <f t="shared" ref="M41" si="13">M20*0.1</f>
@@ -3400,17 +3411,17 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2">
         <v>36355</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q42">
         <f t="shared" ref="Q42:S42" si="14">Q21*0.1</f>
@@ -3425,17 +3436,17 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2">
         <v>36361</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="15">T22*0.1</f>
@@ -3446,17 +3457,17 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>34912</v>
       </c>
       <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
         <v>37</v>
-      </c>
-      <c r="D44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" t="s">
-        <v>39</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -3472,17 +3483,17 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <v>35312</v>
       </c>
       <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" t="s">
         <v>37</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s">
-        <v>39</v>
       </c>
       <c r="R45">
         <v>2.5</v>
@@ -3492,68 +3503,68 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>35598</v>
       </c>
       <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" t="s">
         <v>37</v>
-      </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>35318</v>
       </c>
       <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" t="s">
         <v>37</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2">
         <v>35599</v>
       </c>
       <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
         <v>37</v>
-      </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <v>36355</v>
       </c>
       <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
         <v>37</v>
-      </c>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" t="s">
-        <v>39</v>
       </c>
       <c r="S49">
         <v>0.68</v>
@@ -3563,17 +3574,17 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="2">
         <v>36361</v>
       </c>
       <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" t="s">
         <v>37</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" t="s">
-        <v>39</v>
       </c>
       <c r="T50">
         <v>2.66</v>
@@ -3583,34 +3594,34 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2">
         <v>42264</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2">
         <v>42270</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y52">
         <v>0.27300000000000002</v>
@@ -3620,17 +3631,17 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="2">
         <v>42271</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O53">
         <v>0.29799999999999999</v>
@@ -3640,17 +3651,17 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="2">
         <v>42262</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V54">
         <v>0.63300000000000001</v>
@@ -3660,34 +3671,34 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="2">
         <v>42264</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="2">
         <v>42270</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M56">
         <v>325</v>
@@ -3700,17 +3711,17 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="2">
         <v>42271</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O57">
         <v>7</v>
@@ -3720,17 +3731,17 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="2">
         <v>42262</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U58">
         <v>0.84699999999999998</v>
@@ -3749,17 +3760,17 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="2">
         <v>42264</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F59">
         <v>0.50800000000000001</v>
@@ -3769,17 +3780,17 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="2">
         <v>42270</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M60">
         <v>17.7</v>
@@ -3792,34 +3803,34 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="2">
         <v>42271</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="2">
         <v>42262</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U62">
         <v>5.58</v>
@@ -3838,17 +3849,17 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="2">
         <v>42264</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F63">
         <f>F59*0.8</f>
@@ -3859,17 +3870,17 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="2">
         <v>42270</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M64">
         <f>M60*0.8</f>
@@ -3884,34 +3895,34 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="2">
         <v>42271</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="2">
         <v>42262</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U66">
         <f t="shared" si="16"/>
@@ -3934,34 +3945,34 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="2">
         <v>42264</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="2">
         <v>42270</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M68">
         <v>7.73</v>
@@ -3974,34 +3985,34 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="2">
         <v>42271</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="2">
         <v>42262</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U70">
         <v>7.06</v>
@@ -4020,17 +4031,17 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="2">
         <v>42264</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F71">
         <f>F59*0.1</f>
@@ -4041,17 +4052,17 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="2">
         <v>42270</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="17">M60*0.1</f>
@@ -4066,34 +4077,34 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="2">
         <v>42271</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="2">
         <v>42262</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U74">
         <f t="shared" ref="U74:X74" si="18">U62*0.1</f>
@@ -4116,34 +4127,34 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="2">
         <v>42264</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="2">
         <v>42270</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M76">
         <v>0.59299999999999997</v>
@@ -4156,34 +4167,34 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="2">
         <v>42271</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="2">
         <v>42262</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W78">
         <v>0.88400000000000001</v>
@@ -4201,806 +4212,828 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="B2" s="9">
+        <v>43.497896066780697</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-73.633785650616701</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1700606.74</v>
+      </c>
+      <c r="E2" s="1">
+        <v>721954.3</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2260</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43.499098756970596</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-73.630584699946894</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1701053.9449689442</v>
+      </c>
+      <c r="E3" s="1">
+        <v>722799.02049689449</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2260</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>43.497896066780697</v>
-      </c>
-      <c r="C2">
-        <v>-73.633785650616701</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1700606.74</v>
-      </c>
-      <c r="E2" s="2">
-        <v>721954.3</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="H3" s="12">
+        <v>291.32646270796863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9">
+        <v>43.4988900084943</v>
+      </c>
+      <c r="C4" s="9">
+        <v>-73.630025857956696</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1700979.4108074533</v>
+      </c>
+      <c r="E4" s="1">
+        <v>722948.08881987585</v>
+      </c>
+      <c r="F4" s="10">
         <v>2260</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>43.499098756970596</v>
-      </c>
-      <c r="C3">
-        <v>-73.630584699946894</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="G4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="12">
+        <v>323.50463870469224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9">
+        <v>43.499064494015897</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-73.626090479482798</v>
+      </c>
+      <c r="D5" s="1">
         <v>1701053.9449689442</v>
       </c>
-      <c r="E3" s="2">
-        <v>722799.02049689449</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="E5" s="1">
+        <v>723991.56708074536</v>
+      </c>
+      <c r="F5" s="10">
         <v>2260</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="3">
-        <v>291.32646270796863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>43.4988900084943</v>
-      </c>
-      <c r="C4">
-        <v>-73.630025857956696</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1700979.4108074533</v>
-      </c>
-      <c r="E4" s="2">
-        <v>722948.08881987585</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="G5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12">
+        <v>635.7436421844759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43.501480893430802</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-73.625634227879502</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1701935.9325465839</v>
+      </c>
+      <c r="E6" s="1">
+        <v>724103.36832298141</v>
+      </c>
+      <c r="F6" s="10">
         <v>2260</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="3">
-        <v>323.50463870469224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>43.499064494015897</v>
-      </c>
-      <c r="C5">
-        <v>-73.626090479482798</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1701053.9449689442</v>
-      </c>
-      <c r="E5" s="2">
-        <v>723991.56708074536</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="G6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12">
+        <v>770.20055978851542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9">
+        <v>43.501201095843399</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-73.624701834666794</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1701836.5536645963</v>
+      </c>
+      <c r="E7" s="1">
+        <v>724351.81552795041</v>
+      </c>
+      <c r="F7" s="10">
         <v>2260</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="3">
-        <v>635.7436421844759</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>43.501480893430802</v>
-      </c>
-      <c r="C6">
-        <v>-73.625634227879502</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1701935.9325465839</v>
-      </c>
-      <c r="E6" s="2">
-        <v>724103.36832298141</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="G7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12">
+        <v>821.29446540000356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9">
+        <v>43.502992219480603</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-73.622709391945506</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1702494.9387577639</v>
+      </c>
+      <c r="E8" s="1">
+        <v>724873.55465838511</v>
+      </c>
+      <c r="F8" s="10">
         <v>2260</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="3">
-        <v>770.20055978851542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>43.501201095843399</v>
-      </c>
-      <c r="C7">
-        <v>-73.624701834666794</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1701836.5536645963</v>
-      </c>
-      <c r="E7" s="2">
-        <v>724351.81552795041</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="G8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1059.6937510700161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9">
+        <v>43.493260105793098</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-73.621027417513105</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1698952.54</v>
+      </c>
+      <c r="E9" s="1">
+        <v>725357.25</v>
+      </c>
+      <c r="F9" s="10">
         <v>2260</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="3">
-        <v>821.29446540000356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>43.502992219480603</v>
-      </c>
-      <c r="C8">
-        <v>-73.622709391945506</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1702494.9387577639</v>
-      </c>
-      <c r="E8" s="2">
-        <v>724873.55465838511</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="G9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1153.2742029608949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9">
+        <v>43.504728457834197</v>
+      </c>
+      <c r="C10" s="9">
+        <v>-73.622450126041599</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1703128.4791304348</v>
+      </c>
+      <c r="E10" s="1">
+        <v>724935.66645962733</v>
+      </c>
+      <c r="F10" s="10">
         <v>2260</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1059.6937510700161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>43.493260105793098</v>
-      </c>
-      <c r="C9">
-        <v>-73.621027417513105</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1698952.54</v>
-      </c>
-      <c r="E9" s="2">
-        <v>725357.25</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="G10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1190.1928427889777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9">
+        <v>43.491674293631803</v>
+      </c>
+      <c r="C11" s="9">
+        <v>-73.618224010271604</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1698382.42</v>
+      </c>
+      <c r="E11" s="1">
+        <v>726107.25</v>
+      </c>
+      <c r="F11" s="10">
         <v>2260</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1153.2742029608949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>43.504728457834197</v>
-      </c>
-      <c r="C10">
-        <v>-73.622450126041599</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1703128.4791304348</v>
-      </c>
-      <c r="E10" s="2">
-        <v>724935.66645962733</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="G11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1435.9474839221741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9">
+        <v>43.505960934719198</v>
+      </c>
+      <c r="C12" s="9">
+        <v>-73.618733076752093</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1703588.1064596274</v>
+      </c>
+      <c r="E12" s="1">
+        <v>725917.03291925474</v>
+      </c>
+      <c r="F12" s="10">
         <v>2260</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1190.1928427889777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>43.491674293631803</v>
-      </c>
-      <c r="C11">
-        <v>-73.618224010271604</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1698382.42</v>
-      </c>
-      <c r="E11" s="2">
-        <v>726107.25</v>
-      </c>
-      <c r="F11" s="14">
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1511.5068004322216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9">
+        <v>43.503966643433699</v>
+      </c>
+      <c r="C13" s="9">
+        <v>-73.616467728211205</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1702867.6095652173</v>
+      </c>
+      <c r="E13" s="1">
+        <v>726525.72857142857</v>
+      </c>
+      <c r="F13" s="10">
         <v>2260</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1435.9474839221741</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>43.505960934719198</v>
-      </c>
-      <c r="C12">
-        <v>-73.618733076752093</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1703588.1064596274</v>
-      </c>
-      <c r="E12" s="2">
-        <v>725917.03291925474</v>
-      </c>
-      <c r="F12" s="14">
+      <c r="G13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1554.4647711192977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9">
+        <v>43.503938939826298</v>
+      </c>
+      <c r="C14" s="9">
+        <v>-73.608508107513202</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1702880.0319254659</v>
+      </c>
+      <c r="E14" s="1">
+        <v>728637.52981366462</v>
+      </c>
+      <c r="F14" s="10">
         <v>2260</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1511.5068004322216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>43.503966643433699</v>
-      </c>
-      <c r="C13">
-        <v>-73.616467728211205</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1702867.6095652173</v>
-      </c>
-      <c r="E13" s="2">
-        <v>726525.72857142857</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="G14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="12">
+        <v>2151.6681727244145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43.505783949095502</v>
+      </c>
+      <c r="C15" s="9">
+        <v>-73.609089680544599</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1703550.839378882</v>
+      </c>
+      <c r="E15" s="1">
+        <v>728476.03913043486</v>
+      </c>
+      <c r="F15" s="10">
         <v>2260</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1554.4647711192977</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>43.503938939826298</v>
-      </c>
-      <c r="C14">
-        <v>-73.608508107513202</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1702880.0319254659</v>
-      </c>
-      <c r="E14" s="2">
-        <v>728637.52981366462</v>
-      </c>
-      <c r="F14" s="14">
+      <c r="G15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="12">
+        <v>2180.9883532348667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="9">
+        <v>43.506081167713397</v>
+      </c>
+      <c r="C16" s="9">
+        <v>-73.607867850541993</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1703662.640621118</v>
+      </c>
+      <c r="E16" s="1">
+        <v>728799.02049689449</v>
+      </c>
+      <c r="F16" s="10">
         <v>2260</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2151.6681727244145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>43.505783949095502</v>
-      </c>
-      <c r="C15">
-        <v>-73.609089680544599</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1703550.839378882</v>
-      </c>
-      <c r="E15" s="2">
-        <v>728476.03913043486</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="G16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="12">
+        <v>2284.7545992229939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="9">
+        <v>43.492655534737601</v>
+      </c>
+      <c r="C17" s="9">
+        <v>-73.610762217950906</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1698761.12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>728083.45</v>
+      </c>
+      <c r="F17" s="10">
         <v>2260</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2180.9883532348667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>43.506081167713397</v>
-      </c>
-      <c r="C16">
-        <v>-73.607867850541993</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1703662.640621118</v>
-      </c>
-      <c r="E16" s="2">
-        <v>728799.02049689449</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="G17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1951.0246073131161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9">
+        <v>43.492468745346002</v>
+      </c>
+      <c r="C18" s="9">
+        <v>-73.608831143437797</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1698698.52</v>
+      </c>
+      <c r="E18" s="1">
+        <v>728596.59</v>
+      </c>
+      <c r="F18" s="10">
         <v>2260</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2284.7545992229939</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>43.492655534737601</v>
-      </c>
-      <c r="C17">
-        <v>-73.610762217950906</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1698761.12</v>
-      </c>
-      <c r="E17" s="2">
-        <v>728083.45</v>
-      </c>
-      <c r="F17" s="14">
+      <c r="G18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="12">
+        <v>2106.4595471012444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="9">
+        <v>43.491029918326703</v>
+      </c>
+      <c r="C19" s="9">
+        <v>-73.607995418771296</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1698176.48</v>
+      </c>
+      <c r="E19" s="1">
+        <v>728823.97</v>
+      </c>
+      <c r="F19" s="10">
         <v>2260</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1951.0246073131161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>43.492468745346002</v>
-      </c>
-      <c r="C18">
-        <v>-73.608831143437797</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1698698.52</v>
-      </c>
-      <c r="E18" s="2">
-        <v>728596.59</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="G19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="12">
+        <v>2221.0391300440147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9">
+        <v>43.496220118497398</v>
+      </c>
+      <c r="C20" s="9">
+        <v>-73.625746958489799</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1700018.2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>724093.6</v>
+      </c>
+      <c r="F20" s="10">
         <v>2260</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2106.4595471012444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>43.491029918326703</v>
-      </c>
-      <c r="C19">
-        <v>-73.607995418771296</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1698176.48</v>
-      </c>
-      <c r="E19" s="2">
-        <v>728823.97</v>
-      </c>
-      <c r="F19" s="14">
+      <c r="G20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="12">
+        <v>676.28408446261255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="9">
+        <v>43.493137095666903</v>
+      </c>
+      <c r="C21" s="9">
+        <v>-73.6240684168543</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1698899.2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>724550.8</v>
+      </c>
+      <c r="F21" s="10">
         <v>2260</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2221.0391300440147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>43.496220118497398</v>
-      </c>
-      <c r="C20">
-        <v>-73.625746958489799</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1700018.2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>724093.6</v>
-      </c>
-      <c r="F20" s="14">
-        <v>2260</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="3">
-        <v>676.28408446261255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>43.493137095666903</v>
-      </c>
-      <c r="C21">
-        <v>-73.6240684168543</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1698899.2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>724550.8</v>
-      </c>
-      <c r="F21" s="14">
-        <v>2260</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="12">
         <v>947.21253304322397</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="18">
         <v>29.731660000000002</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="18">
         <v>-95.412599999999998</v>
       </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="14">
         <v>32115</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="G22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="20">
         <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="A23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="20">
         <v>29.732970000000002</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="21">
         <v>-95.413979999999995</v>
       </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="14">
         <v>32115</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="G23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="20">
         <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="A24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="20">
         <v>29.733080000000001</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="20">
         <v>-95.413020000000003</v>
       </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="14">
         <v>32115</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="G24" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="20">
         <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="20">
         <v>29.732679999999998</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="20">
         <v>-95.411810000000003</v>
       </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="14">
         <v>32115</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="G25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="20">
         <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="A26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="20">
         <v>29.733730000000001</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="20">
         <v>-95.412239999999997</v>
       </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="14">
         <v>32115</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="G26" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="20">
         <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="7">
+      <c r="A27" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="20">
         <v>29.733250000000002</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="20">
         <v>-95.411389999999997</v>
       </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="14">
         <v>32115</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="20">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="A28" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="20">
         <v>29.733989999999999</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="20">
         <v>-95.410929999999993</v>
       </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="14">
         <v>32115</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="G28" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="20">
         <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="7">
+      <c r="A29" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="20">
         <v>29.732690000000002</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="20">
         <v>-95.413179999999997</v>
       </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="14">
         <v>32115</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="G29" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="A30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="20">
         <v>29.732559999999999</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="20">
         <v>-95.412350000000004</v>
       </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="14">
         <v>32115</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="G30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="20">
         <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="7">
+      <c r="A31" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="20">
         <v>29.733560000000001</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="20">
         <v>-95.413349999999994</v>
       </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="14">
         <v>32115</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="G31" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="20">
         <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="7">
+      <c r="A32" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="20">
         <v>29.73556</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="20">
         <v>-95.415350000000004</v>
       </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="14">
         <v>32115</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="9">
+      <c r="G32" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="20">
         <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="13">
         <v>43.493137095666903</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="13">
         <v>-73.6240684168543</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="7">
         <v>1698899.2</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="7">
         <v>724550.8</v>
       </c>
       <c r="F33" s="14">
         <v>32115</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="G33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="16">
         <v>947.21253304322397</v>
       </c>
     </row>
